--- a/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950465F3-9915-8E43-98FB-8D13741A934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBF1DF-A0A5-AC43-A481-CA0DD00FCBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
   <si>
     <t>General Information</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>ITM-1213-3316-0003</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>ITM-1213-3316-0004</t>
   </si>
 </sst>
 </file>
@@ -2011,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2211,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
@@ -2259,9 +2265,65 @@
         <v>45292</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>45292</v>
+      </c>
+      <c r="R5" s="5">
+        <v>45292</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"-,update,review,publish"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CBF1DF-A0A5-AC43-A481-CA0DD00FCBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D61AD5E-541B-2748-A7BD-CABC082A7321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
   <si>
     <t>General Information</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>ITM-1213-3316-0004</t>
+  </si>
+  <si>
+    <t>ITM-1213-3316-0005</t>
+  </si>
+  <si>
+    <t>unpublish</t>
   </si>
 </sst>
 </file>
@@ -2017,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2321,10 +2327,66 @@
         <v>45292</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>45292</v>
+      </c>
+      <c r="R6" s="5">
+        <v>45292</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"-,update,review,publish"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7B8F7546-DF62-5A4E-A30B-2255272A291A}">
+      <formula1>"-,update,review,publish,unpublish"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D61AD5E-541B-2748-A7BD-CABC082A7321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4567284-25BD-3844-B9B1-7CEA2387725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
   <si>
     <t>General Information</t>
   </si>
@@ -488,6 +488,21 @@
   </si>
   <si>
     <t>unpublish</t>
+  </si>
+  <si>
+    <t>ITM-1213-3316-0006</t>
+  </si>
+  <si>
+    <t>65AB123BASD2</t>
+  </si>
+  <si>
+    <t>NAV123456</t>
+  </si>
+  <si>
+    <t>Description 6</t>
+  </si>
+  <si>
+    <t>create</t>
   </si>
 </sst>
 </file>
@@ -2023,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2383,10 +2398,66 @@
         <v>45292</v>
       </c>
     </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>45292</v>
+      </c>
+      <c r="R7" s="5">
+        <v>45292</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7B8F7546-DF62-5A4E-A30B-2255272A291A}">
-      <formula1>"-,update,review,publish,unpublish"</formula1>
+      <formula1>"-,create,update,review,publish,unpublish"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4567284-25BD-3844-B9B1-7CEA2387725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC80678-701B-FE42-8CEE-D09CA2B6A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,7 +922,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2041,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-file-update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susana.vazquez/Projects/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC80678-701B-FE42-8CEE-D09CA2B6A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD82B05-3DD3-824E-B962-0EE92ECAD5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="139">
   <si>
     <t>General Information</t>
   </si>
@@ -334,9 +334,6 @@
     <t>ERP Item ID</t>
   </si>
   <si>
-    <t>Billing Frequency</t>
-  </si>
-  <si>
     <t>Commitment Term</t>
   </si>
   <si>
@@ -503,6 +500,18 @@
   </si>
   <si>
     <t>create</t>
+  </si>
+  <si>
+    <t>Billing Model</t>
+  </si>
+  <si>
+    <t>Billing Period</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>usage</t>
   </si>
 </sst>
 </file>
@@ -606,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -663,7 +672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -769,7 +778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -911,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,92 +1065,92 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2038,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2051,15 +2060,15 @@
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="16" width="27.1640625" customWidth="1"/>
-    <col min="17" max="18" width="24.5" customWidth="1"/>
+    <col min="6" max="7" width="69.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="17" width="27.1640625" customWidth="1"/>
+    <col min="18" max="19" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2079,216 +2088,228 @@
         <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>92</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
         <v>93</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="S2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>95</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="R2" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>91</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
         <v>97</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>98</v>
       </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>45292</v>
-      </c>
       <c r="R3" s="5">
         <v>45292</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
         <v>97</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>98</v>
       </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>45292</v>
-      </c>
       <c r="R4" s="5">
         <v>45292</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2297,160 +2318,169 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
         <v>90</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>91</v>
       </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>98</v>
       </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>45292</v>
-      </c>
       <c r="R5" s="5">
         <v>45292</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
         <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
         <v>90</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
         <v>91</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
         <v>97</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>98</v>
       </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>45292</v>
-      </c>
       <c r="R6" s="5">
         <v>45292</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>133</v>
       </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
       <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>98</v>
       </c>
-      <c r="P7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>45292</v>
-      </c>
       <c r="R7" s="5">
+        <v>45292</v>
+      </c>
+      <c r="S7" s="5">
         <v>45292</v>
       </c>
     </row>
@@ -2500,7 +2530,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>17</v>
@@ -2511,22 +2541,22 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="4">
         <v>45292</v>
@@ -2537,22 +2567,22 @@
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="5">
         <v>45292</v>
